--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -15,7 +15,7 @@
     <sheet name="多言語管理、及び属性グループと属性値のデータ構造" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'多言語管理、及び属性グループと属性値のデータ構造'!$A$1:$AS$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'多言語管理、及び属性グループと属性値のデータ構造'!$A$1:$AS$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'多言語管理、及び属性グループと属性値のデータ構造'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -237,22 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ソートキーを属性グループのエイリアスでカンマ区切りで指定する。（昇順）</t>
-    <rPh sb="6" eb="8">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ショウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全属性グループが返される。</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
@@ -370,6 +354,64 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>フドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regionId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域IDを指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域を限定しないデータが返される。</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>naoya-suzuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/2/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソートキーを指定する。</t>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「属性グループのエイリアス:asc/desc」の形式でカンマ区切りで指定する。</t>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -409,6 +451,28 @@
         <charset val="128"/>
       </rPr>
       <t>attrGrp=Nm,Dsc,Purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>regionId=1</t>
     </r>
     <r>
       <rPr>
@@ -496,7 +560,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>order=Purpose,Nm</t>
+      <t>order=Purpose:asc,Nm:desc</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -505,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +628,20 @@
       <u/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -729,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,8 +946,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT21"/>
+  <dimension ref="A1:AT24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -1262,7 +1343,9 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="5"/>
+      <c r="AA2" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
@@ -1316,7 +1399,9 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="8"/>
+      <c r="AA3" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -1549,22 +1634,22 @@
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
       <c r="F10" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="45"/>
       <c r="K10" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
@@ -1585,7 +1670,7 @@
       <c r="AB10" s="44"/>
       <c r="AC10" s="45"/>
       <c r="AD10" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE10" s="44"/>
       <c r="AF10" s="44"/>
@@ -1693,7 +1778,7 @@
       <c r="AB12" s="33"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE12" s="33"/>
       <c r="AF12" s="33"/>
@@ -1712,20 +1797,20 @@
     </row>
     <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="36" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
       <c r="F13" s="36"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="36" t="s">
-        <v>20</v>
+      <c r="H13" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="38"/>
       <c r="K13" s="36" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
@@ -1746,7 +1831,7 @@
       <c r="AB13" s="37"/>
       <c r="AC13" s="38"/>
       <c r="AD13" s="36" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AE13" s="37"/>
       <c r="AF13" s="37"/>
@@ -1759,115 +1844,115 @@
       <c r="AM13" s="37"/>
       <c r="AN13" s="37"/>
       <c r="AO13" s="37"/>
-      <c r="AP13" s="39" t="s">
-        <v>36</v>
-      </c>
+      <c r="AP13" s="46"/>
       <c r="AQ13" s="37"/>
       <c r="AR13" s="38"/>
     </row>
     <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="42"/>
+      <c r="B14" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="38"/>
     </row>
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="34"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="42"/>
     </row>
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -1880,7 +1965,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="34"/>
       <c r="K16" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
@@ -1914,15 +1999,13 @@
       <c r="AM16" s="33"/>
       <c r="AN16" s="33"/>
       <c r="AO16" s="33"/>
-      <c r="AP16" s="35" t="s">
-        <v>36</v>
-      </c>
+      <c r="AP16" s="33"/>
       <c r="AQ16" s="33"/>
       <c r="AR16" s="34"/>
     </row>
     <row r="17" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -1930,12 +2013,12 @@
       <c r="F17" s="32"/>
       <c r="G17" s="34"/>
       <c r="H17" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
       <c r="K17" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -1969,30 +2052,220 @@
       <c r="AM17" s="33"/>
       <c r="AN17" s="33"/>
       <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
+      <c r="AP17" s="35" t="s">
+        <v>35</v>
+      </c>
       <c r="AQ17" s="33"/>
       <c r="AR17" s="34"/>
     </row>
+    <row r="18" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="38"/>
+    </row>
     <row r="19" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="41"/>
+      <c r="AQ19" s="41"/>
+      <c r="AR19" s="42"/>
     </row>
     <row r="21" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>44</v>
-      </c>
+      <c r="C23" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+    </row>
+    <row r="24" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C23:AR24"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>

--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -12,11 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
   </bookViews>
   <sheets>
-    <sheet name="多言語管理、及び属性グループと属性値のデータ構造" sheetId="1" r:id="rId1"/>
+    <sheet name="施設取得" sheetId="2" r:id="rId1"/>
+    <sheet name="施設一覧取得" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'多言語管理、及び属性グループと属性値のデータ構造'!$A$1:$AS$27</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'多言語管理、及び属性グループと属性値のデータ構造'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">施設取得!$A$1:$AS$30</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">施設一覧取得!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">施設取得!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -92,23 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モバイルクライアントからウェブサーバに渡すリクエストパラメータの概要を下記にまとめる。</t>
-    <rPh sb="19" eb="20">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>例）</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -389,10 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015/2/13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ソートキーを指定する。</t>
     <rPh sb="6" eb="8">
       <t>シテイ</t>
@@ -416,8 +398,125 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>１．</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設一覧を取得する際の仕様をまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://[ホスト名]/melip-webservices/resource/facilityList</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返り値</t>
+    <rPh sb="0" eb="1">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常時</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースシングルDTOが返される。</t>
+    <rPh sb="12" eb="13">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常時</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースエラーDTOが返される。</t>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://[ホスト名]/melip-webservices/resource/facility</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設IDを指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>http://melip.com/melip-webservices/resource/facility?</t>
+      <t>http://[ホスト名]/melip-webservices/resource/facilityList</t>
     </r>
     <r>
       <rPr>
@@ -562,6 +661,111 @@
       </rPr>
       <t>order=Purpose:asc,Nm:desc</t>
     </r>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>http://[ホスト名]/melip-webservices/resource/facility?</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>langDiv=ja</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>attrGrp=Nm,Dsc,Purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>facilityId=1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースマルチDTOが返される。</t>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設を取得する際の仕様をまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/2/19</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -569,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,14 +790,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
@@ -803,11 +999,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,65 +1088,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,7 +1441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT24"/>
+  <dimension ref="A1:AT30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -1344,7 +1543,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1400,7 +1599,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1429,7 +1628,9 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -1568,406 +1769,156 @@
       <c r="AS6" s="26"/>
       <c r="AT6" s="27"/>
     </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+    <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="31"/>
+    </row>
+    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-    </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-    </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="45"/>
-    </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="32" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="32" t="s">
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="34"/>
+    </row>
+    <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="34"/>
-    </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="34"/>
-    </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="38"/>
-    </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="36" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="36" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="38"/>
-    </row>
-    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="42"/>
-    </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="33"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
@@ -1984,9 +1935,9 @@
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
       <c r="AB16" s="33"/>
-      <c r="AC16" s="34"/>
+      <c r="AC16" s="33"/>
       <c r="AD16" s="32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
@@ -2003,24 +1954,25 @@
       <c r="AQ16" s="33"/>
       <c r="AR16" s="34"/>
     </row>
-    <row r="17" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="33"/>
+    <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
@@ -2037,9 +1989,9 @@
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
       <c r="AB17" s="33"/>
-      <c r="AC17" s="34"/>
+      <c r="AC17" s="33"/>
       <c r="AD17" s="32" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
@@ -2052,79 +2004,793 @@
       <c r="AM17" s="33"/>
       <c r="AN17" s="33"/>
       <c r="AO17" s="33"/>
-      <c r="AP17" s="35" t="s">
-        <v>35</v>
-      </c>
+      <c r="AP17" s="47"/>
       <c r="AQ17" s="33"/>
       <c r="AR17" s="34"/>
     </row>
-    <row r="18" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="36" t="s">
+    <row r="18" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD18" s="44"/>
+    </row>
+    <row r="19" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+    </row>
+    <row r="20" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+    </row>
+    <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="27"/>
+    </row>
+    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="27"/>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="27"/>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="27"/>
+    </row>
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="27"/>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="27"/>
+    </row>
+    <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="31"/>
+    </row>
+    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="38"/>
-    </row>
-    <row r="19" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="34"/>
+    </row>
+    <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="34"/>
+    </row>
+    <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="37"/>
+    </row>
+    <row r="18" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="37"/>
+    </row>
+    <row r="19" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="40"/>
       <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
@@ -2141,7 +2807,7 @@
       <c r="Z19" s="41"/>
       <c r="AA19" s="41"/>
       <c r="AB19" s="41"/>
-      <c r="AC19" s="42"/>
+      <c r="AC19" s="41"/>
       <c r="AD19" s="40"/>
       <c r="AE19" s="41"/>
       <c r="AF19" s="41"/>
@@ -2158,114 +2824,360 @@
       <c r="AQ19" s="41"/>
       <c r="AR19" s="42"/>
     </row>
-    <row r="21" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
+    <row r="20" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="34"/>
+    </row>
+    <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="33"/>
+      <c r="AP21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="34"/>
+    </row>
+    <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-    </row>
-    <row r="24" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="47"/>
-      <c r="AL24" s="47"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="47"/>
-    </row>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="37"/>
+    </row>
+    <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="42"/>
+    </row>
+    <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD24" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE24" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD25" s="44"/>
+    </row>
+    <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+    </row>
+    <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+    </row>
+    <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C23:AR24"/>
+    <mergeCell ref="D26:AR27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
+    <hyperlink ref="D26" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>

--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\80_補足資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\80_補足資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>attrGrp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>何件目のデータから取得するか指定する。</t>
     <rPh sb="0" eb="3">
       <t>ナンケンメ</t>
@@ -368,10 +364,6 @@
     <rPh sb="12" eb="13">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>naoya-suzuki</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -765,7 +757,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015/2/19</t>
+    <t>attrGrpAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/2/20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jun-nakashima</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1543,7 +1543,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1599,7 +1599,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1629,7 +1629,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1772,46 +1772,46 @@
     <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="31"/>
       <c r="L14" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
@@ -1831,7 +1831,7 @@
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
       <c r="AD14" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -1917,7 +1917,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
       <c r="L16" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -1937,7 +1937,7 @@
       <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
       <c r="AD16" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="32" t="s">
@@ -1971,7 +1971,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="34"/>
       <c r="L17" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -2016,7 +2016,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -2105,38 +2105,38 @@
     </row>
     <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2261,7 +2261,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2317,7 +2317,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2347,7 +2347,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2490,46 +2490,46 @@
     <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="31"/>
       <c r="L14" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
@@ -2549,7 +2549,7 @@
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
       <c r="AD14" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -2635,7 +2635,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
       <c r="L16" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -2655,7 +2655,7 @@
       <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
       <c r="AD16" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
@@ -2687,7 +2687,7 @@
       <c r="J17" s="36"/>
       <c r="K17" s="37"/>
       <c r="L17" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -2707,7 +2707,7 @@
       <c r="AB17" s="36"/>
       <c r="AC17" s="36"/>
       <c r="AD17" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE17" s="36"/>
       <c r="AF17" s="36"/>
@@ -2739,7 +2739,7 @@
       <c r="J18" s="36"/>
       <c r="K18" s="37"/>
       <c r="L18" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
@@ -2759,7 +2759,7 @@
       <c r="AB18" s="36"/>
       <c r="AC18" s="36"/>
       <c r="AD18" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE18" s="36"/>
       <c r="AF18" s="36"/>
@@ -2773,7 +2773,7 @@
       <c r="AN18" s="36"/>
       <c r="AO18" s="36"/>
       <c r="AP18" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ18" s="36"/>
       <c r="AR18" s="37"/>
@@ -2789,7 +2789,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="42"/>
       <c r="L19" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
@@ -2839,7 +2839,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="34"/>
       <c r="L20" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
@@ -2859,7 +2859,7 @@
       <c r="AB20" s="33"/>
       <c r="AC20" s="33"/>
       <c r="AD20" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE20" s="33"/>
       <c r="AF20" s="33"/>
@@ -2891,7 +2891,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="34"/>
       <c r="L21" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
@@ -2911,7 +2911,7 @@
       <c r="AB21" s="33"/>
       <c r="AC21" s="33"/>
       <c r="AD21" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
@@ -2925,7 +2925,7 @@
       <c r="AN21" s="33"/>
       <c r="AO21" s="33"/>
       <c r="AP21" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="34"/>
@@ -2945,7 +2945,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="37"/>
       <c r="L22" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
@@ -2965,7 +2965,7 @@
       <c r="AB22" s="36"/>
       <c r="AC22" s="36"/>
       <c r="AD22" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE22" s="36"/>
       <c r="AF22" s="36"/>
@@ -2993,7 +2993,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="42"/>
       <c r="L23" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD24" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE24" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="AE24" s="28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3044,7 +3044,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -3134,38 +3134,38 @@
     <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\80_補足資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\80_補足資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="施設一覧取得" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">施設取得!$A$1:$AS$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">施設一覧取得!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">施設取得!$1:$6</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -428,10 +428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パラメータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>３．</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -503,6 +499,200 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>http://[ホスト名]/melip-webservices/resource/facility?</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>langDiv=ja</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>attrGrp=Nm,Dsc,Purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>facilityId=1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースマルチDTOが返される。</t>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設を取得する際の仕様をまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/2/20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jun-nakashima</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ（順不同）</t>
+    <rPh sb="6" eb="9">
+      <t>ジュンフドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度を指定する。（小数点以下6桁）</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度を指定する。（小数点以下6桁）</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索対象となる半径を指定する。（単位：km）</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクタイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置情報を限定しないデータが返される。</t>
+    <rPh sb="0" eb="4">
+      <t>イチジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -653,31 +843,11 @@
       </rPr>
       <t>order=Purpose:asc,Nm:desc</t>
     </r>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>http://[ホスト名]/melip-webservices/resource/facility?</t>
-    </r>
     <r>
       <rPr>
         <u/>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>langDiv=ja</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="10"/>
+        <color rgb="FF0070C0"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -693,7 +863,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>attrGrp=Nm,Dsc,Purpose</t>
+      <t>lat=35.663729</t>
     </r>
     <r>
       <rPr>
@@ -715,18 +885,29 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>facilityId=1</t>
+      <t>lon=139.744047</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="9"/>
-        <color theme="10"/>
+        <color rgb="FF0070C0"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t/>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>r=0.5</t>
     </r>
     <rPh sb="11" eb="12">
       <t>メイ</t>
@@ -734,38 +915,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リソースマルチDTOが返される。</t>
-    <rPh sb="11" eb="12">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設を取得する際の仕様をまとめる。</t>
+    <t>緯度・経度は両方指定してはじめて有効となる。</t>
     <rPh sb="0" eb="2">
-      <t>シセツ</t>
+      <t>イド</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrGrpAlias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/2/20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>jun-nakashima</t>
+      <t>ケイド</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>リョウホウシテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径を省略した場合、0.5kmで検索される。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1003,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,9 +1294,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1150,6 +1325,21 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1543,7 +1733,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1599,7 +1789,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1629,7 +1819,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1780,8 +1970,8 @@
     </row>
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="45" t="s">
-        <v>59</v>
+      <c r="C10" s="44" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1790,7 +1980,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1904,7 +2094,7 @@
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -1956,13 +2146,13 @@
     </row>
     <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="32" t="s">
@@ -1971,7 +2161,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="34"/>
       <c r="L17" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -2004,139 +2194,139 @@
       <c r="AM17" s="33"/>
       <c r="AN17" s="33"/>
       <c r="AO17" s="33"/>
-      <c r="AP17" s="47"/>
+      <c r="AP17" s="46"/>
       <c r="AQ17" s="33"/>
       <c r="AR17" s="34"/>
     </row>
     <row r="18" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD18" s="44"/>
+      <c r="AD18" s="43"/>
     </row>
     <row r="19" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
+      <c r="D19" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
     </row>
     <row r="20" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="46"/>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
     </row>
     <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2159,7 +2349,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT38"/>
+  <dimension ref="A1:AT42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -2261,7 +2451,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2317,7 +2507,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2498,7 +2688,7 @@
     </row>
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2508,7 +2698,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2622,7 +2812,7 @@
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -2672,7 +2862,7 @@
       <c r="AQ16" s="33"/>
       <c r="AR16" s="34"/>
     </row>
-    <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="35" t="s">
         <v>40</v>
       </c>
@@ -2720,11 +2910,13 @@
       <c r="AM17" s="36"/>
       <c r="AN17" s="36"/>
       <c r="AO17" s="36"/>
-      <c r="AP17" s="38"/>
+      <c r="AP17" s="42" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ17" s="36"/>
       <c r="AR17" s="37"/>
     </row>
-    <row r="18" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="35" t="s">
         <v>16</v>
       </c>
@@ -2772,59 +2964,59 @@
       <c r="AM18" s="36"/>
       <c r="AN18" s="36"/>
       <c r="AO18" s="36"/>
-      <c r="AP18" s="39" t="s">
+      <c r="AP18" s="38" t="s">
         <v>32</v>
       </c>
       <c r="AQ18" s="36"/>
       <c r="AR18" s="37"/>
     </row>
-    <row r="19" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="40" t="s">
+    <row r="19" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="42"/>
-    </row>
-    <row r="20" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="41"/>
+    </row>
+    <row r="20" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="32" t="s">
         <v>14</v>
       </c>
@@ -2876,7 +3068,7 @@
       <c r="AQ20" s="33"/>
       <c r="AR20" s="34"/>
     </row>
-    <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="32" t="s">
         <v>15</v>
       </c>
@@ -2924,13 +3116,13 @@
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
       <c r="AO21" s="33"/>
-      <c r="AP21" s="43" t="s">
+      <c r="AP21" s="42" t="s">
         <v>32</v>
       </c>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="34"/>
     </row>
-    <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="35" t="s">
         <v>13</v>
       </c>
@@ -2982,202 +3174,403 @@
       <c r="AQ22" s="36"/>
       <c r="AR22" s="37"/>
     </row>
-    <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="40" t="s">
+    <row r="23" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="42"/>
-    </row>
-    <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD24" s="44" t="s">
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="41"/>
+    </row>
+    <row r="24" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="37"/>
+    </row>
+    <row r="25" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="51"/>
+    </row>
+    <row r="26" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="41"/>
+    </row>
+    <row r="27" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD27" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AE24" s="28" t="s">
+      <c r="AE27" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD25" s="44"/>
-    </row>
-    <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="28" t="s">
+    <row r="28" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD28" s="43"/>
+    </row>
+    <row r="29" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D29" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="47"/>
+    </row>
+    <row r="30" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="45"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+    </row>
+    <row r="31" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+    </row>
+    <row r="32" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-    </row>
-    <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="46"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-    </row>
-    <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="28" t="s">
+    </row>
+    <row r="37" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="28" t="s">
+    </row>
+    <row r="39" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="3:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D26:AR27"/>
+    <mergeCell ref="D29:AR31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
+    <hyperlink ref="D29" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>

--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">施設取得!$A$1:$AS$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">施設取得!$A$1:$AS$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">施設一覧取得!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">施設取得!$1:$6</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -417,13 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://[ホスト名]/melip-webservices/resource/facilityList</t>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>２．</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -478,33 +471,158 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://[ホスト名]/melip-webservices/resource/facility</t>
+    <t>リソースマルチDTOが返される。</t>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設を取得する際の仕様をまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ（順不同）</t>
+    <rPh sb="6" eb="9">
+      <t>ジュンフドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度を指定する。（小数点以下6桁）</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度を指定する。（小数点以下6桁）</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索対象となる半径を指定する。（単位：km）</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクタイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置情報を限定しないデータが返される。</t>
+    <rPh sb="0" eb="4">
+      <t>イチジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度・経度は両方指定してはじめて有効となる。</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイド</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>リョウホウシテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径を省略した場合、0.5kmで検索される。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://[ホスト名]/melip-webservices/api/facilities/[id]</t>
     <rPh sb="11" eb="12">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>facilityId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設IDを指定する。</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
-      <t>http://[ホスト名]/melip-webservices/resource/facility?</t>
+      <t>http://[ホスト名]/melip-webservices/api/facilities/1?</t>
     </r>
     <r>
       <rPr>
@@ -543,28 +661,6 @@
       <rPr>
         <u/>
         <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>facilityId=1</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
         <color theme="10"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
@@ -578,127 +674,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リソースマルチDTOが返される。</t>
+    <t>http://[ホスト名]/melip-webservices/api/facilities</t>
     <rPh sb="11" eb="12">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設を取得する際の仕様をまとめる。</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrGrpAlias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/2/20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>jun-nakashima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パラメータ（順不同）</t>
-    <rPh sb="6" eb="9">
-      <t>ジュンフドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Float</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緯度を指定する。（小数点以下6桁）</t>
-    <rPh sb="0" eb="2">
-      <t>イド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="9" eb="14">
-      <t>ショウスウテンイカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経度を指定する。（小数点以下6桁）</t>
-    <rPh sb="0" eb="2">
-      <t>ケイド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="9" eb="14">
-      <t>ショウスウテンイカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索対象となる半径を指定する。（単位：km）</t>
-    <rPh sb="0" eb="4">
-      <t>ケンサクタイショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>位置情報を限定しないデータが返される。</t>
-    <rPh sb="0" eb="4">
-      <t>イチジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カエ</t>
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>http://[ホスト名]/melip-webservices/resource/facilityList</t>
+      <t>http://[ホスト名]/melip-webservices/api/facilities?</t>
     </r>
     <r>
       <rPr>
@@ -915,35 +899,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>緯度・経度は両方指定してはじめて有効となる。</t>
-    <rPh sb="0" eb="2">
-      <t>イド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイド</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>リョウホウシテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半径を省略した場合、0.5kmで検索される。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウリャク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンサク</t>
-    </rPh>
+    <t>naoya-suzuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/2/27</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -951,7 +911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,12 +962,6 @@
       <u/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1181,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,26 +1274,23 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1631,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT30"/>
+  <dimension ref="A1:AT29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -1733,7 +1684,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1789,7 +1740,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1819,7 +1770,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1971,16 +1922,16 @@
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="44" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2094,7 +2045,7 @@
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -2145,69 +2096,59 @@
       <c r="AR16" s="34"/>
     </row>
     <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="34"/>
+      <c r="AD17" s="43"/>
     </row>
     <row r="18" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD18" s="43"/>
+      <c r="C18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
     </row>
     <row r="19" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>62</v>
-      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
@@ -2250,92 +2191,48 @@
       <c r="AR19" s="45"/>
     </row>
     <row r="20" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-    </row>
-    <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="28" t="s">
+      <c r="B20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="28" t="s">
+    </row>
+    <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D22" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="28" t="s">
-        <v>52</v>
-      </c>
       <c r="D23" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="28" t="s">
+    <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D25" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="28" t="s">
-        <v>55</v>
-      </c>
       <c r="D26" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
+    <hyperlink ref="D18" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>
@@ -2451,7 +2348,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2507,7 +2404,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2689,16 +2586,16 @@
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="44" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2812,7 +2709,7 @@
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -3222,7 +3119,7 @@
     </row>
     <row r="24" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -3230,12 +3127,12 @@
       <c r="G24" s="32"/>
       <c r="H24" s="34"/>
       <c r="I24" s="32" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="34"/>
       <c r="L24" s="32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
@@ -3255,7 +3152,7 @@
       <c r="AB24" s="33"/>
       <c r="AC24" s="33"/>
       <c r="AD24" s="35" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AE24" s="36"/>
       <c r="AF24" s="36"/>
@@ -3276,7 +3173,7 @@
     </row>
     <row r="25" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="32" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -3284,12 +3181,12 @@
       <c r="G25" s="32"/>
       <c r="H25" s="34"/>
       <c r="I25" s="32" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="34"/>
       <c r="L25" s="32" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
@@ -3308,27 +3205,27 @@
       <c r="AA25" s="33"/>
       <c r="AB25" s="33"/>
       <c r="AC25" s="33"/>
-      <c r="AD25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="51"/>
+      <c r="AD25" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="49"/>
     </row>
     <row r="26" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -3336,12 +3233,12 @@
       <c r="G26" s="32"/>
       <c r="H26" s="34"/>
       <c r="I26" s="32" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
       <c r="L26" s="32" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
@@ -3361,7 +3258,7 @@
       <c r="AB26" s="33"/>
       <c r="AC26" s="33"/>
       <c r="AD26" s="39" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AE26" s="40"/>
       <c r="AF26" s="40"/>
@@ -3374,7 +3271,7 @@
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
       <c r="AO26" s="40"/>
-      <c r="AP26" s="52"/>
+      <c r="AP26" s="50"/>
       <c r="AQ26" s="40"/>
       <c r="AR26" s="41"/>
     </row>
@@ -3393,172 +3290,172 @@
       <c r="C29" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="47"/>
-      <c r="AL29" s="47"/>
-      <c r="AM29" s="47"/>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="47"/>
+      <c r="D29" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
     </row>
     <row r="30" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="45"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="47"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="47"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
     </row>
     <row r="31" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="47"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
     </row>
     <row r="32" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>55</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -553,22 +553,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索対象となる半径を指定する。（単位：km）</t>
-    <rPh sb="0" eb="4">
-      <t>ケンサクタイショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>位置情報を限定しないデータが返される。</t>
     <rPh sb="0" eb="4">
       <t>イチジョウホウ</t>
@@ -594,22 +578,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半径を省略した場合、0.5kmで検索される。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウリャク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -904,6 +872,38 @@
   </si>
   <si>
     <t>2015/2/27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索対象となる半径を指定する。（単位：m）</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクタイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径を省略した場合、500mで検索される。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1684,7 +1684,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1740,7 +1740,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1922,7 +1922,7 @@
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2103,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
@@ -2404,7 +2404,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2586,7 +2586,7 @@
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3152,7 +3152,7 @@
       <c r="AB24" s="33"/>
       <c r="AC24" s="33"/>
       <c r="AD24" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE24" s="36"/>
       <c r="AF24" s="36"/>
@@ -3206,7 +3206,7 @@
       <c r="AB25" s="33"/>
       <c r="AC25" s="33"/>
       <c r="AD25" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE25" s="46"/>
       <c r="AF25" s="46"/>
@@ -3238,7 +3238,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
       <c r="L26" s="32" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
@@ -3258,7 +3258,7 @@
       <c r="AB26" s="33"/>
       <c r="AC26" s="33"/>
       <c r="AD26" s="39" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE26" s="40"/>
       <c r="AF26" s="40"/>
@@ -3291,7 +3291,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>

--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -16,7 +16,7 @@
     <sheet name="施設一覧取得" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">施設取得!$A$1:$AS$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">施設一覧取得!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">施設取得!$1:$6</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -903,6 +903,16 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、距離でソートする場合は、「distance:asc/desc」とする。</t>
+    <rPh sb="4" eb="6">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2246,7 +2256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT42"/>
+  <dimension ref="A1:AT43"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -3072,108 +3082,100 @@
       <c r="AR22" s="37"/>
     </row>
     <row r="23" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="39" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="40"/>
-      <c r="AO23" s="40"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="41"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="49"/>
     </row>
     <row r="24" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="37"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="41"/>
     </row>
     <row r="25" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -3186,7 +3188,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="34"/>
       <c r="L25" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
@@ -3205,27 +3207,29 @@
       <c r="AA25" s="33"/>
       <c r="AB25" s="33"/>
       <c r="AC25" s="33"/>
-      <c r="AD25" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="46"/>
-      <c r="AM25" s="46"/>
-      <c r="AN25" s="46"/>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="46"/>
-      <c r="AR25" s="49"/>
+      <c r="AD25" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="37"/>
     </row>
     <row r="26" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -3238,7 +3242,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
       <c r="L26" s="32" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
@@ -3257,86 +3261,94 @@
       <c r="AA26" s="33"/>
       <c r="AB26" s="33"/>
       <c r="AC26" s="33"/>
-      <c r="AD26" s="39" t="s">
+      <c r="AD26" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="49"/>
+    </row>
+    <row r="27" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="41"/>
-    </row>
-    <row r="27" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD27" s="43" t="s">
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="41"/>
+    </row>
+    <row r="28" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD28" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AE27" s="28" t="s">
+      <c r="AE28" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD28" s="43"/>
-    </row>
     <row r="29" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="28" t="s">
+      <c r="AD29" s="43"/>
+    </row>
+    <row r="30" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D30" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-    </row>
-    <row r="30" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="45"/>
-      <c r="D30" s="51"/>
       <c r="E30" s="51"/>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -3379,6 +3391,7 @@
       <c r="AR30" s="51"/>
     </row>
     <row r="31" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="45"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
@@ -3421,53 +3434,96 @@
       <c r="AQ31" s="51"/>
       <c r="AR31" s="51"/>
     </row>
-    <row r="32" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="28" t="s">
+    <row r="32" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+    </row>
+    <row r="33" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C34" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="28" t="s">
+    <row r="35" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D36" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="28" t="s">
+    <row r="37" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="28" t="s">
+    <row r="38" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D39" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="28" t="s">
+    <row r="40" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D29:AR31"/>
+    <mergeCell ref="D30:AR32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
+    <hyperlink ref="D30" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>

--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -891,28 +891,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半径を省略した場合、500mで検索される。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウリャク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ただし、距離でソートする場合は、「distance:asc/desc」とする。</t>
     <rPh sb="4" eb="6">
       <t>キョリ</t>
     </rPh>
     <rPh sb="12" eb="14">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径を省略した場合、範囲は絞らずに検索される。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3138,7 +3144,7 @@
       <c r="J24" s="40"/>
       <c r="K24" s="41"/>
       <c r="L24" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
@@ -3314,7 +3320,7 @@
       <c r="AB27" s="33"/>
       <c r="AC27" s="33"/>
       <c r="AD27" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" s="40"/>
       <c r="AF27" s="40"/>

--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -14,11 +14,14 @@
   <sheets>
     <sheet name="施設取得" sheetId="2" r:id="rId1"/>
     <sheet name="施設一覧取得" sheetId="1" r:id="rId2"/>
+    <sheet name="施設削除" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">施設取得!$A$1:$AS$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">施設削除!$A$1:$AS$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">施設取得!$A$1:$AS$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">施設一覧取得!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">施設削除!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">施設取得!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -920,6 +923,38 @@
     <rPh sb="17" eb="19">
       <t>ケンサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/3/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設を削除する際の仕様をまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（メソッド：GET）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（メソッド：DELETE）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1598,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT29"/>
+  <dimension ref="A1:AT30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -1941,132 +1976,85 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28" t="s">
+    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="29" t="s">
+    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="29" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="29" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="29" t="s">
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="29" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="31"/>
-    </row>
-    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="34"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="31"/>
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" s="34"/>
       <c r="I16" s="32" t="s">
         <v>18</v>
@@ -2074,7 +2062,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
       <c r="L16" s="32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -2094,7 +2082,7 @@
       <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
       <c r="AD16" s="32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
@@ -2112,59 +2100,67 @@
       <c r="AR16" s="34"/>
     </row>
     <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD17" s="43"/>
+      <c r="C17" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="34"/>
     </row>
     <row r="18" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="28" t="s">
+      <c r="AD18" s="43"/>
+    </row>
+    <row r="19" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-    </row>
-    <row r="19" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
@@ -2207,48 +2203,92 @@
       <c r="AR19" s="45"/>
     </row>
     <row r="20" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="28" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+    </row>
+    <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="28" t="s">
+    <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D23" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="28" t="s">
+    <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="28" t="s">
+    <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D26" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="28" t="s">
+    <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
+    <hyperlink ref="D19" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>
@@ -2262,7 +2302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT43"/>
+  <dimension ref="A1:AT44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -2605,132 +2645,85 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28" t="s">
+    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="29" t="s">
+    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="29" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="29" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="29" t="s">
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="29" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="31"/>
-    </row>
-    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="34"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="31"/>
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="32" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" s="34"/>
       <c r="I16" s="32" t="s">
         <v>18</v>
@@ -2738,7 +2731,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
       <c r="L16" s="32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -2758,7 +2751,7 @@
       <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
       <c r="AD16" s="32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
@@ -2776,75 +2769,73 @@
       <c r="AR16" s="34"/>
     </row>
     <row r="17" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="37"/>
+      <c r="C17" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="34"/>
     </row>
     <row r="18" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="35" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
       <c r="G18" s="35"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="35" t="s">
-        <v>18</v>
+      <c r="I18" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="J18" s="36"/>
       <c r="K18" s="37"/>
       <c r="L18" s="35" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
@@ -2864,7 +2855,7 @@
       <c r="AB18" s="36"/>
       <c r="AC18" s="36"/>
       <c r="AD18" s="35" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="AE18" s="36"/>
       <c r="AF18" s="36"/>
@@ -2877,113 +2868,115 @@
       <c r="AM18" s="36"/>
       <c r="AN18" s="36"/>
       <c r="AO18" s="36"/>
-      <c r="AP18" s="38" t="s">
+      <c r="AP18" s="42" t="s">
         <v>32</v>
       </c>
       <c r="AQ18" s="36"/>
       <c r="AR18" s="37"/>
     </row>
     <row r="19" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="39" t="s">
+      <c r="C19" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="37"/>
+    </row>
+    <row r="20" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="40"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="41"/>
-    </row>
-    <row r="20" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="34"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="41"/>
     </row>
     <row r="21" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -2996,7 +2989,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="34"/>
       <c r="L21" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
@@ -3016,7 +3009,7 @@
       <c r="AB21" s="33"/>
       <c r="AC21" s="33"/>
       <c r="AD21" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
@@ -3029,213 +3022,211 @@
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
       <c r="AO21" s="33"/>
-      <c r="AP21" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="AP21" s="33"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="34"/>
     </row>
     <row r="22" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="33"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ22" s="33"/>
+      <c r="AR22" s="34"/>
+    </row>
+    <row r="23" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="35" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="35" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="35" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="37"/>
-    </row>
-    <row r="23" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="47"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="47" t="s">
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="37"/>
+    </row>
+    <row r="24" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="47"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="49"/>
-    </row>
-    <row r="24" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="39" t="s">
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="49"/>
+    </row>
+    <row r="25" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="40"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="40"/>
-      <c r="AR24" s="41"/>
-    </row>
-    <row r="25" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="37"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="41"/>
     </row>
     <row r="26" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -3248,7 +3239,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
       <c r="L26" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
@@ -3267,27 +3258,29 @@
       <c r="AA26" s="33"/>
       <c r="AB26" s="33"/>
       <c r="AC26" s="33"/>
-      <c r="AD26" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="49"/>
+      <c r="AD26" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="37"/>
     </row>
     <row r="27" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -3300,7 +3293,7 @@
       <c r="J27" s="33"/>
       <c r="K27" s="34"/>
       <c r="L27" s="32" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
@@ -3319,86 +3312,94 @@
       <c r="AA27" s="33"/>
       <c r="AB27" s="33"/>
       <c r="AC27" s="33"/>
-      <c r="AD27" s="39" t="s">
+      <c r="AD27" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="49"/>
+    </row>
+    <row r="28" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="50"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="41"/>
-    </row>
-    <row r="28" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD28" s="43" t="s">
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="41"/>
+    </row>
+    <row r="29" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD29" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AE28" s="28" t="s">
+      <c r="AE29" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AD29" s="43"/>
-    </row>
     <row r="30" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="28" t="s">
+      <c r="AD30" s="43"/>
+    </row>
+    <row r="31" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D31" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-    </row>
-    <row r="31" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="45"/>
-      <c r="D31" s="51"/>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -3441,6 +3442,7 @@
       <c r="AR31" s="51"/>
     </row>
     <row r="32" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="45"/>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
@@ -3483,53 +3485,96 @@
       <c r="AQ32" s="51"/>
       <c r="AR32" s="51"/>
     </row>
-    <row r="33" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="28" t="s">
+    <row r="33" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+    </row>
+    <row r="34" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C35" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="28" t="s">
+    <row r="36" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D37" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="28" t="s">
+    <row r="38" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="28" t="s">
+    <row r="39" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D40" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="28" t="s">
+    <row r="41" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D30:AR32"/>
+    <mergeCell ref="D31:AR33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
+    <hyperlink ref="D31" r:id="rId1" display="http://melip.com/melip-webservices/resource/facility?langDiv=ja&amp;attrGrp=Nm,Dsc,Purpose&amp;condition=Purpose:shop,ShopGenre:other&amp;index=1&amp;count=5&amp;order=Purpose,Nm"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>
@@ -3539,4 +3584,460 @@
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="27"/>
+    </row>
+    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="27"/>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="27"/>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="27"/>
+    </row>
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="27"/>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="27"/>
+    </row>
+    <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+    </row>
+    <row r="17" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
+++ b/80_補足資料/D-002_Webサービスへのパラメータ定義【IF】.xlsx
@@ -15,14 +15,20 @@
     <sheet name="施設取得" sheetId="2" r:id="rId1"/>
     <sheet name="施設一覧取得" sheetId="1" r:id="rId2"/>
     <sheet name="施設削除" sheetId="3" r:id="rId3"/>
+    <sheet name="施設登録" sheetId="4" r:id="rId4"/>
+    <sheet name="施設更新" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">施設一覧取得!$A$1:$AS$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">施設更新!$A$1:$AS$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">施設削除!$A$1:$AS$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">施設取得!$A$1:$AS$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">施設登録!$A$1:$AS$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">施設一覧取得!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">施設更新!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">施設削除!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">施設取得!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">施設登録!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="149">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -125,19 +131,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーとする。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -589,6 +587,101 @@
     <rPh sb="11" eb="12">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://[ホスト名]/melip-webservices/api/facilities</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>naoya-suzuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/2/27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索対象となる半径を指定する。（単位：m）</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクタイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、距離でソートする場合は、「distance:asc/desc」とする。</t>
+    <rPh sb="4" eb="6">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径を省略した場合、範囲は絞らずに検索される。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/3/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設を削除する際の仕様をまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（メソッド：GET）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（メソッド：DELETE）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -626,7 +719,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>attrGrp=Nm,Dsc,Purpose</t>
+      <t>attrGrpAlias=Nm,Dsc,Purpose</t>
     </r>
     <r>
       <rPr>
@@ -639,13 +732,6 @@
       </rPr>
       <t/>
     </r>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://[ホスト名]/melip-webservices/api/facilities</t>
     <rPh sb="11" eb="12">
       <t>メイ</t>
     </rPh>
@@ -686,7 +772,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>attrGrp=Nm,Dsc,Purpose</t>
+      <t>attrGrpAlias=Nm,Dsc,Purpose</t>
     </r>
     <r>
       <rPr>
@@ -870,72 +956,426 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>naoya-suzuki</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/2/27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索対象となる半径を指定する。（単位：m）</t>
+    <t>全言語区分のデータが返される。</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>ゲンゴクブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度・経度を指定すると、指定した位置からの距離が返される。</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（メソッド：POST）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録された施設の施設IDのリストが返される。</t>
     <rPh sb="0" eb="4">
-      <t>ケンサクタイショウ</t>
+      <t>シンキトウロク</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ハンケイ</t>
+      <t>シセツ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ただし、距離でソートする場合は、「distance:asc/desc」とする。</t>
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のJSON形式とする。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "regionId": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "publishSts": "dcls",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "latitude": 35.666863,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "longitude": 139.74954,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "parentFacilityId": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "attrStoreDtoList": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "attrGrpId": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "attrGrpAlias": "Nm",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ]</t>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    },・・・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1件でも配列とすること。</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
     <rPh sb="4" eb="6">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半径を省略した場合、範囲は絞らずに検索される。</t>
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域ID</t>
     <rPh sb="0" eb="2">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウリャク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/3/6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設を削除する際の仕様をまとめる。</t>
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親施設ID</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループID</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性グループエイリアス</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設登録更新DTO配列</t>
     <rPh sb="0" eb="2">
       <t>シセツ</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設登録更新DTO</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性登録更新DTO配列</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性登録更新DTO</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                "attrLangDiv": "ja",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性言語区分</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ゲンゴクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性値</t>
+    <rPh sb="0" eb="3">
+      <t>ゾクセイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            },・・・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性分繰り返し</t>
+    <rPh sb="0" eb="3">
+      <t>ゾクセイブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設分繰り返し</t>
+    <rPh sb="0" eb="3">
+      <t>シセツブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                "attrVal": "日光東照宮"</t>
+    <rPh sb="28" eb="30">
+      <t>ニッコウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>トウショウグウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（メソッド：PUT）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "regionId": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "publishSts": "dcls",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "latitude": 35.666863,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "longitude": 139.74954,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "parentFacilityId": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "attrStoreDtoList": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "attrGrpId": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "attrGrpAlias": "Nm",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "attrLangDiv": "ja",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "attrVal": "日光東照宮"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },・・・・・</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>1件でも配列とすること。属性を更新しない場合は不要。</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/3/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設を登録する際の仕様をまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>サクジョ</t>
+      <t>トウロク</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>サイ</t>
@@ -946,15 +1386,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（メソッド：GET）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（メソッド：DELETE）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
+    <t>施設を更新する際の仕様をまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1052,7 +1496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1177,6 +1621,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1186,7 +1741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1342,6 +1897,51 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1735,7 +2335,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1791,7 +2391,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1821,7 +2421,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1964,51 +2564,51 @@
     <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
       <c r="L15" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
@@ -2028,7 +2628,7 @@
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
@@ -2052,17 +2652,15 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="32" t="s">
-        <v>17</v>
-      </c>
+      <c r="G16" s="32"/>
       <c r="H16" s="34"/>
       <c r="I16" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
       <c r="L16" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -2082,7 +2680,7 @@
       <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
       <c r="AD16" s="32" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
@@ -2101,7 +2699,7 @@
     </row>
     <row r="17" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="32" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -2109,12 +2707,12 @@
       <c r="G17" s="32"/>
       <c r="H17" s="34"/>
       <c r="I17" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="34"/>
       <c r="L17" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -2134,7 +2732,7 @@
       <c r="AB17" s="33"/>
       <c r="AC17" s="33"/>
       <c r="AD17" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
@@ -2159,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
@@ -2248,38 +2846,38 @@
     </row>
     <row r="21" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2460,7 +3058,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2490,7 +3088,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2633,51 +3231,51 @@
     <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
       <c r="L15" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
@@ -2697,7 +3295,7 @@
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
@@ -2721,17 +3319,15 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="32" t="s">
-        <v>17</v>
-      </c>
+      <c r="G16" s="32"/>
       <c r="H16" s="34"/>
       <c r="I16" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
       <c r="L16" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -2751,7 +3347,7 @@
       <c r="AB16" s="33"/>
       <c r="AC16" s="33"/>
       <c r="AD16" s="32" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
@@ -2770,7 +3366,7 @@
     </row>
     <row r="17" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -2778,12 +3374,12 @@
       <c r="G17" s="32"/>
       <c r="H17" s="34"/>
       <c r="I17" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="34"/>
       <c r="L17" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -2803,7 +3399,7 @@
       <c r="AB17" s="33"/>
       <c r="AC17" s="33"/>
       <c r="AD17" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
@@ -2822,7 +3418,7 @@
     </row>
     <row r="18" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -2830,12 +3426,12 @@
       <c r="G18" s="35"/>
       <c r="H18" s="37"/>
       <c r="I18" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="36"/>
       <c r="K18" s="37"/>
       <c r="L18" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
@@ -2855,7 +3451,7 @@
       <c r="AB18" s="36"/>
       <c r="AC18" s="36"/>
       <c r="AD18" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE18" s="36"/>
       <c r="AF18" s="36"/>
@@ -2869,7 +3465,7 @@
       <c r="AN18" s="36"/>
       <c r="AO18" s="36"/>
       <c r="AP18" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ18" s="36"/>
       <c r="AR18" s="37"/>
@@ -2884,12 +3480,12 @@
       <c r="G19" s="35"/>
       <c r="H19" s="37"/>
       <c r="I19" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="37"/>
       <c r="L19" s="35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
@@ -2909,7 +3505,7 @@
       <c r="AB19" s="36"/>
       <c r="AC19" s="36"/>
       <c r="AD19" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AE19" s="36"/>
       <c r="AF19" s="36"/>
@@ -2923,7 +3519,7 @@
       <c r="AN19" s="36"/>
       <c r="AO19" s="36"/>
       <c r="AP19" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ19" s="36"/>
       <c r="AR19" s="37"/>
@@ -2939,7 +3535,7 @@
       <c r="J20" s="40"/>
       <c r="K20" s="41"/>
       <c r="L20" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
@@ -2984,12 +3580,12 @@
       <c r="G21" s="32"/>
       <c r="H21" s="34"/>
       <c r="I21" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="34"/>
       <c r="L21" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
@@ -3009,7 +3605,7 @@
       <c r="AB21" s="33"/>
       <c r="AC21" s="33"/>
       <c r="AD21" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
@@ -3036,12 +3632,12 @@
       <c r="G22" s="32"/>
       <c r="H22" s="34"/>
       <c r="I22" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="34"/>
       <c r="L22" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
@@ -3061,7 +3657,7 @@
       <c r="AB22" s="33"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE22" s="33"/>
       <c r="AF22" s="33"/>
@@ -3075,7 +3671,7 @@
       <c r="AN22" s="33"/>
       <c r="AO22" s="33"/>
       <c r="AP22" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="34"/>
@@ -3090,12 +3686,12 @@
       <c r="G23" s="35"/>
       <c r="H23" s="37"/>
       <c r="I23" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="36"/>
       <c r="K23" s="37"/>
       <c r="L23" s="35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
@@ -3115,7 +3711,7 @@
       <c r="AB23" s="36"/>
       <c r="AC23" s="36"/>
       <c r="AD23" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE23" s="36"/>
       <c r="AF23" s="36"/>
@@ -3143,7 +3739,7 @@
       <c r="J24" s="46"/>
       <c r="K24" s="49"/>
       <c r="L24" s="47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M24" s="46"/>
       <c r="N24" s="46"/>
@@ -3189,7 +3785,7 @@
       <c r="J25" s="40"/>
       <c r="K25" s="41"/>
       <c r="L25" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
@@ -3226,7 +3822,7 @@
     </row>
     <row r="26" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -3234,12 +3830,12 @@
       <c r="G26" s="32"/>
       <c r="H26" s="34"/>
       <c r="I26" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
       <c r="L26" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
@@ -3249,17 +3845,19 @@
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
+      <c r="U26" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="53"/>
       <c r="AD26" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AE26" s="36"/>
       <c r="AF26" s="36"/>
@@ -3273,14 +3871,14 @@
       <c r="AN26" s="36"/>
       <c r="AO26" s="36"/>
       <c r="AP26" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ26" s="36"/>
       <c r="AR26" s="37"/>
     </row>
     <row r="27" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -3288,12 +3886,12 @@
       <c r="G27" s="32"/>
       <c r="H27" s="34"/>
       <c r="I27" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="34"/>
       <c r="L27" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
@@ -3303,17 +3901,17 @@
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="55"/>
       <c r="AD27" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE27" s="46"/>
       <c r="AF27" s="46"/>
@@ -3332,7 +3930,7 @@
     </row>
     <row r="28" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -3340,12 +3938,12 @@
       <c r="G28" s="32"/>
       <c r="H28" s="34"/>
       <c r="I28" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
       <c r="L28" s="32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
@@ -3365,7 +3963,7 @@
       <c r="AB28" s="33"/>
       <c r="AC28" s="33"/>
       <c r="AD28" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE28" s="40"/>
       <c r="AF28" s="40"/>
@@ -3384,10 +3982,10 @@
     </row>
     <row r="29" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD29" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE29" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3398,7 +3996,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
@@ -3531,46 +4129,47 @@
     <row r="34" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D31:AR33"/>
+    <mergeCell ref="U26:AC27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3718,7 +4317,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -3772,7 +4371,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -3915,36 +4514,36 @@
     <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="44" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3993,38 +4592,38 @@
     </row>
     <row r="17" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4040,4 +4639,2518 @@
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="27"/>
+    </row>
+    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="27"/>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="27"/>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="27"/>
+    </row>
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="27"/>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="27"/>
+    </row>
+    <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="31"/>
+    </row>
+    <row r="18" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="60"/>
+    </row>
+    <row r="19" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="63"/>
+    </row>
+    <row r="20" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="63"/>
+    </row>
+    <row r="21" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="63"/>
+    </row>
+    <row r="22" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="63"/>
+    </row>
+    <row r="23" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="63"/>
+    </row>
+    <row r="24" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="63"/>
+    </row>
+    <row r="25" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="63"/>
+    </row>
+    <row r="26" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="63"/>
+    </row>
+    <row r="27" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="63"/>
+    </row>
+    <row r="28" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="62"/>
+      <c r="AM28" s="62"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="63"/>
+    </row>
+    <row r="29" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="63"/>
+    </row>
+    <row r="30" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="62"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="63"/>
+    </row>
+    <row r="31" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="62"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="63"/>
+    </row>
+    <row r="32" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="62"/>
+      <c r="AK32" s="62"/>
+      <c r="AL32" s="62"/>
+      <c r="AM32" s="62"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="63"/>
+    </row>
+    <row r="33" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="62"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="63"/>
+    </row>
+    <row r="34" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="65"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="65"/>
+      <c r="AQ34" s="65"/>
+      <c r="AR34" s="66"/>
+    </row>
+    <row r="35" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="27"/>
+    </row>
+    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="27"/>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="27"/>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="27"/>
+    </row>
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="27"/>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="27"/>
+    </row>
+    <row r="7" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="31"/>
+    </row>
+    <row r="18" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="63"/>
+    </row>
+    <row r="19" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="63"/>
+    </row>
+    <row r="20" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="63"/>
+    </row>
+    <row r="21" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="63"/>
+    </row>
+    <row r="22" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="63"/>
+    </row>
+    <row r="23" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="63"/>
+    </row>
+    <row r="24" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="63"/>
+    </row>
+    <row r="25" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="63"/>
+    </row>
+    <row r="26" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="63"/>
+    </row>
+    <row r="27" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="63"/>
+    </row>
+    <row r="28" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="62"/>
+      <c r="AM28" s="62"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="63"/>
+    </row>
+    <row r="29" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="63"/>
+    </row>
+    <row r="30" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="62"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="63"/>
+    </row>
+    <row r="31" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="62"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="63"/>
+    </row>
+    <row r="32" spans="4:44" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="65"/>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="66"/>
+    </row>
+    <row r="33" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:4" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="7.874015748031496E-2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>